--- a/va_facility_data_2025-02-20/Browning VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Browning%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Browning VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Browning%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rac772b7defc14181b8633bba58191e98"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R14c1aea1b92740c68267758ce4170216"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R29466250b49d40fa99804e701eceac42"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="Ra5d02808abfc45a3bd6f95b12d3038cb"/>
   </x:sheets>
 </x:workbook>
 </file>
